--- a/po_analysis_by_asin/B083HZHL81_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZHL81_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,46 +514,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -565,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,22 +577,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B7" t="n">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B083HZHL81_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZHL81_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -541,7 +542,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -575,6 +576,271 @@
       </c>
       <c r="B5" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.07586678789577776</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.764375691457905</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6375206909103346</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.41642815461269</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.344746450842059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.73573027031453</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.887538462770647</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.22403241302629</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.504688065018011</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.02868085450687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.484255860794525</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.95963537442731</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.218545389285268</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.16098736423253</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.15221359124648</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.50335976334727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.65121442976759</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.92222607644615</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.13846698181063</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.64269074286722</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.841140295156</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21.70184500582027</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.34337209303157</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.43432016482656</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.87327022581966</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.57946704823755</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.21428785501701</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23.39085796235043</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.79141468207584</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.29230144577998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.96862629997793</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24.45011230798945</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083HZHL81_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZHL81_po_data.xlsx
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,16 +608,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -626,12 +616,6 @@
       <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.07586678789577776</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.764375691457905</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -640,12 +624,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.6375206909103346</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.41642815461269</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -654,12 +632,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.344746450842059</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.73573027031453</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -668,12 +640,6 @@
       <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
-        <v>6.887538462770647</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.22403241302629</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -682,12 +648,6 @@
       <c r="B6" t="n">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
-        <v>7.504688065018011</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.02868085450687</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -696,12 +656,6 @@
       <c r="B7" t="n">
         <v>14</v>
       </c>
-      <c r="C7" t="n">
-        <v>8.484255860794525</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18.95963537442731</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -710,12 +664,6 @@
       <c r="B8" t="n">
         <v>14</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.218545389285268</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19.16098736423253</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -724,12 +672,6 @@
       <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="n">
-        <v>10.15221359124648</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20.50335976334727</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -738,12 +680,6 @@
       <c r="B10" t="n">
         <v>16</v>
       </c>
-      <c r="C10" t="n">
-        <v>10.65121442976759</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20.92222607644615</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -752,12 +688,6 @@
       <c r="B11" t="n">
         <v>16</v>
       </c>
-      <c r="C11" t="n">
-        <v>11.13846698181063</v>
-      </c>
-      <c r="D11" t="n">
-        <v>21.64269074286722</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -766,12 +696,6 @@
       <c r="B12" t="n">
         <v>17</v>
       </c>
-      <c r="C12" t="n">
-        <v>11.841140295156</v>
-      </c>
-      <c r="D12" t="n">
-        <v>21.70184500582027</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -780,12 +704,6 @@
       <c r="B13" t="n">
         <v>17</v>
       </c>
-      <c r="C13" t="n">
-        <v>12.34337209303157</v>
-      </c>
-      <c r="D13" t="n">
-        <v>22.43432016482656</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -794,12 +712,6 @@
       <c r="B14" t="n">
         <v>18</v>
       </c>
-      <c r="C14" t="n">
-        <v>12.87327022581966</v>
-      </c>
-      <c r="D14" t="n">
-        <v>23.57946704823755</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -808,12 +720,6 @@
       <c r="B15" t="n">
         <v>19</v>
       </c>
-      <c r="C15" t="n">
-        <v>13.21428785501701</v>
-      </c>
-      <c r="D15" t="n">
-        <v>23.39085796235043</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -822,12 +728,6 @@
       <c r="B16" t="n">
         <v>19</v>
       </c>
-      <c r="C16" t="n">
-        <v>13.79141468207584</v>
-      </c>
-      <c r="D16" t="n">
-        <v>24.29230144577998</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -835,12 +735,6 @@
       </c>
       <c r="B17" t="n">
         <v>20</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13.96862629997793</v>
-      </c>
-      <c r="D17" t="n">
-        <v>24.45011230798945</v>
       </c>
     </row>
   </sheetData>
